--- a/kerjaan/trading crypto.xlsx
+++ b/kerjaan/trading crypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\kerjaan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C3E28C-4269-4CFE-96AD-7F03D8A71423}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9771C0-EE2D-4EB0-AA66-FD0C18344C75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{68760562-B8E4-433A-85EE-ED5139E707AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{68760562-B8E4-433A-85EE-ED5139E707AB}"/>
   </bookViews>
   <sheets>
     <sheet name="trading" sheetId="1" r:id="rId1"/>
@@ -652,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF7CB25-F341-4004-9C8A-979B88B7DD07}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -737,306 +737,306 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE193613-18E0-4606-93D7-1516175CEC7A}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
